--- a/Question Matrix.xlsx
+++ b/Question Matrix.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VHAPORSUNC\source\repos\VSSC\IPRehab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C361A11-2AEF-4328-BB4B-E153805DA90F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1AA86F-D121-4917-9175-FE4F9772FAD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-650" windowWidth="19420" windowHeight="11020" xr2:uid="{78919532-3112-4A72-B346-EDEEDAEF85AE}"/>
+    <workbookView xWindow="4800" yWindow="2130" windowWidth="14400" windowHeight="7810" activeTab="1" xr2:uid="{78919532-3112-4A72-B346-EDEEDAEF85AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="multi form base questions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="37">
   <si>
     <t>Form</t>
   </si>
@@ -132,6 +133,30 @@
       </rPr>
       <t>Blue √ denotes special required Measures</t>
     </r>
+  </si>
+  <si>
+    <t>Self Care Aggregate</t>
+  </si>
+  <si>
+    <t>Self Care Aggregate by Performance</t>
+  </si>
+  <si>
+    <t>Mobility Aggregrate by Performance</t>
+  </si>
+  <si>
+    <t>QID</t>
+  </si>
+  <si>
+    <t>Qkey</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>Q23</t>
+  </si>
+  <si>
+    <t>AssessmentCompleted</t>
   </si>
 </sst>
 </file>
@@ -191,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +235,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -409,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -417,39 +448,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -457,24 +461,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -483,7 +469,79 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -513,41 +571,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -863,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7614628-C978-421C-A325-335BD9733F8E}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -882,700 +925,708 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="17" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="3" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="5"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="50"/>
     </row>
     <row r="3" spans="1:20" ht="126.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="46" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="M3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="46" t="s">
+      <c r="N3" s="11"/>
+      <c r="O3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="44" t="s">
+      <c r="P3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="44" t="s">
+      <c r="Q3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="46" t="s">
+      <c r="R3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="44" t="s">
+      <c r="S3" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22"/>
       <c r="N4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="36"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="22"/>
     </row>
     <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="40"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="40"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="26"/>
       <c r="N5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="40"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="26"/>
     </row>
     <row r="6" spans="1:20" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="40"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="40"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="26"/>
     </row>
     <row r="7" spans="1:20" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" s="41"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="24"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="27"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="9"/>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="25" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="26" t="s">
+      <c r="G8" s="30"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="26" t="s">
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="27"/>
-      <c r="N9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="R9" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="S9" s="16" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="36"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="27"/>
-      <c r="N10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O10" s="31"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="R10" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="S10" s="16" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="36"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="27"/>
-      <c r="N11" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="31"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="R11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="S11" s="16" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="36"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+    </row>
+    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+    </row>
+    <row r="14" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="27"/>
-      <c r="N12" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" s="31"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="R12" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="S12" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="7" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="36"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="27"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-    </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="7" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="36"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="27"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-    </row>
-    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="7" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="36"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-    </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="7" t="s">
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-    </row>
-    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="7" t="s">
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" s="27"/>
-      <c r="N17" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O17" s="31"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="7" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="36"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="27"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-    </row>
-    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="7" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="36"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O19" s="33"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="37"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O23" s="42"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1583,10 +1634,10 @@
     <mergeCell ref="C4:G7"/>
     <mergeCell ref="I4:M7"/>
     <mergeCell ref="O4:S7"/>
-    <mergeCell ref="F8:G19"/>
-    <mergeCell ref="I8:I19"/>
-    <mergeCell ref="M8:M19"/>
-    <mergeCell ref="O8:P19"/>
+    <mergeCell ref="F8:G23"/>
+    <mergeCell ref="I8:I23"/>
+    <mergeCell ref="M8:M23"/>
+    <mergeCell ref="O8:P23"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="N2:S2"/>
@@ -1594,4 +1645,62 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E867AB5-46B1-41BB-9DBF-8CD69CF1FECA}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>526</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>